--- a/imc.xlsx
+++ b/imc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiaz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2EAD347-E41F-490B-8F45-C48F3E746969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E035C357-320D-4C12-9DC0-76C33D7F9A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECF86FEB-C7C1-468F-B834-140B62F6AA0D}"/>
   </bookViews>
@@ -57,8 +57,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -99,8 +99,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1170,13 +1170,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1208,7 +1208,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="9525" y="0"/>
           <a:ext cx="10858500" cy="6781800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1271,16 +1271,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1309,7 +1309,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7248525"/>
+          <a:off x="4524375" y="4067175"/>
           <a:ext cx="7772400" cy="4371975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1621,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9143C3-64DC-4ABC-BE3B-E6860AF7BF0B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1632,11 +1632,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785940DD-2D2D-4E0B-B2E2-389BBAFE1975}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2166,6 +2164,1078 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:C97" si="2">A34/B34^2</f>
+        <v>10.743801652892561</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34:D97" si="3">IF(C34&lt;16,"Desnutrición severa",IF(C34&lt;18.4,"Desnutrición moderada",IF(C34&lt;22,"Bajo Peso",IF(C34&lt;24.9,"Normal",IF(C34&lt;29.9,"sobrepeso",IF(C34&lt;34.9,"Obesidad 1",IF(C34&lt;29.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>38.842975206611563</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>1.2</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>35.416666666666671</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>0.6</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>0.9</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>24.691358024691358</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>1.4</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>12.755102040816329</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1.7</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7301038062283738</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>76</v>
+      </c>
+      <c r="B41">
+        <v>0.9</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>93.827160493827151</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>90</v>
+      </c>
+      <c r="B42">
+        <v>1.3</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>53.254437869822482</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>1.2</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>4.8611111111111116</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>0.2</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>899.99999999999977</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>0.4</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="2"/>
+        <v>124.99999999999997</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>0.3</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="2"/>
+        <v>477.77777777777777</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <v>1.9</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="2"/>
+        <v>19.667590027700832</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>0.9</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="2"/>
+        <v>25.925925925925924</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="3"/>
+        <v>sobrepeso</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="2"/>
+        <v>36.36363636363636</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>85</v>
+      </c>
+      <c r="B50">
+        <v>1.7</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="2"/>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="3"/>
+        <v>sobrepeso</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>1.8</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="2"/>
+        <v>10.185185185185185</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>0.3</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="2"/>
+        <v>622.22222222222229</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>0.8</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="2"/>
+        <v>96.874999999999986</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>1.2</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="2"/>
+        <v>34.027777777777779</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>1.5</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>50</v>
+      </c>
+      <c r="B57">
+        <v>0.9</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="2"/>
+        <v>61.728395061728392</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>0.7</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="2"/>
+        <v>93.877551020408177</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>0.9</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="2"/>
+        <v>51.851851851851848</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>89</v>
+      </c>
+      <c r="B60">
+        <v>1.4</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="2"/>
+        <v>45.408163265306129</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>48</v>
+      </c>
+      <c r="B61">
+        <v>0.8</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="2"/>
+        <v>74.999999999999986</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>1.3</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="2"/>
+        <v>48.520710059171591</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>1.6</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8124999999999982</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>0.2</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="2"/>
+        <v>649.99999999999989</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>74</v>
+      </c>
+      <c r="B65">
+        <v>0.6</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="2"/>
+        <v>205.55555555555557</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>87</v>
+      </c>
+      <c r="B66">
+        <v>0.8</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="2"/>
+        <v>135.93749999999997</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67">
+        <v>1.4</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="2"/>
+        <v>31.122448979591841</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>0.7</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="2"/>
+        <v>151.02040816326533</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69">
+        <v>0.5</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>0.5</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>90</v>
+      </c>
+      <c r="B71">
+        <v>1.6</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="2"/>
+        <v>35.156249999999993</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>0.9</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="2"/>
+        <v>28.39506172839506</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>sobrepeso</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>41</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>0.8</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="2"/>
+        <v>128.12499999999997</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>1.4</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6530612244897966</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>30</v>
+      </c>
+      <c r="B76">
+        <v>1.5</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="2"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>62</v>
+      </c>
+      <c r="B77">
+        <v>0.2</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="2"/>
+        <v>1549.9999999999998</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78">
+        <v>1.9</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="2"/>
+        <v>20.221606648199447</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>24</v>
+      </c>
+      <c r="B79">
+        <v>0.6</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>1.3</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9171597633136086</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>72</v>
+      </c>
+      <c r="B81">
+        <v>1.8</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="2"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>1.3</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="2"/>
+        <v>50.295857988165679</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>64</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>57</v>
+      </c>
+      <c r="B84">
+        <v>1.5</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="2"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="3"/>
+        <v>sobrepeso</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>46</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>51</v>
+      </c>
+      <c r="B86">
+        <v>0.4</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="2"/>
+        <v>318.74999999999994</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>51</v>
+      </c>
+      <c r="B87">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>73</v>
+      </c>
+      <c r="B88">
+        <v>1.6</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="2"/>
+        <v>28.515624999999993</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="3"/>
+        <v>sobrepeso</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>0.2</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="2"/>
+        <v>224.99999999999994</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <v>0.5</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>70</v>
+      </c>
+      <c r="B91">
+        <v>1.2</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="2"/>
+        <v>48.611111111111114</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>39</v>
+      </c>
+      <c r="B92">
+        <v>1.9</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="2"/>
+        <v>10.803324099722992</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <v>1.7</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="2"/>
+        <v>13.148788927335641</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>38</v>
+      </c>
+      <c r="B94">
+        <v>1.3</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="2"/>
+        <v>22.485207100591715</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>23</v>
+      </c>
+      <c r="B95">
+        <v>0.9</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="2"/>
+        <v>28.39506172839506</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="3"/>
+        <v>sobrepeso</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>18</v>
+      </c>
+      <c r="B96">
+        <v>1.4</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="2"/>
+        <v>9.183673469387756</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>61</v>
+      </c>
+      <c r="B97">
+        <v>1.9</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="2"/>
+        <v>16.897506925207757</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="3"/>
+        <v>Desnutrición moderada</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>49</v>
+      </c>
+      <c r="B98">
+        <v>0.9</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" ref="C98:C100" si="4">A98/B98^2</f>
+        <v>60.493827160493822</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" ref="D98:D100" si="5">IF(C98&lt;16,"Desnutrición severa",IF(C98&lt;18.4,"Desnutrición moderada",IF(C98&lt;22,"Bajo Peso",IF(C98&lt;24.9,"Normal",IF(C98&lt;29.9,"sobrepeso",IF(C98&lt;34.9,"Obesidad 1",IF(C98&lt;29.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>1.9</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="4"/>
+        <v>8.5872576177285325</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="5"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <v>1.4</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="4"/>
+        <v>7.6530612244897966</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="5"/>
+        <v>Desnutrición severa</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/imc.xlsx
+++ b/imc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E035C357-320D-4C12-9DC0-76C33D7F9A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63F20E-B8BF-4CA9-982A-7EF205CDD2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECF86FEB-C7C1-468F-B834-140B62F6AA0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ECF86FEB-C7C1-468F-B834-140B62F6AA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1621,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9143C3-64DC-4ABC-BE3B-E6860AF7BF0B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1634,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785940DD-2D2D-4E0B-B2E2-389BBAFE1975}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2329,11 +2329,11 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="2"/>
-        <v>899.99999999999977</v>
+        <v>36</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="3"/>
@@ -2345,31 +2345,31 @@
         <v>20</v>
       </c>
       <c r="B45">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="2"/>
-        <v>124.99999999999997</v>
+        <v>24.691358024691358</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B46">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="2"/>
-        <v>477.77777777777777</v>
+        <v>24.221453287197235</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,15 +2457,15 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="2"/>
-        <v>622.22222222222229</v>
+        <v>28.571428571428577</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>sobrepeso</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,31 +2505,31 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>23.437499999999996</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B56">
         <v>1.5</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="2"/>
-        <v>8.4444444444444446</v>
+        <v>17.777777777777779</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
+        <v>Desnutrición moderada</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,11 +2601,11 @@
         <v>48</v>
       </c>
       <c r="B61">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="2"/>
-        <v>74.999999999999986</v>
+        <v>48</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="3"/>
@@ -2646,18 +2646,18 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B64">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="2"/>
-        <v>649.99999999999989</v>
+        <v>22.95918367346939</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,15 +2665,15 @@
         <v>74</v>
       </c>
       <c r="B65">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="2"/>
-        <v>205.55555555555557</v>
+        <v>25.605536332179934</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>sobrepeso</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,11 +2681,11 @@
         <v>87</v>
       </c>
       <c r="B66">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" si="2"/>
-        <v>135.93749999999997</v>
+        <v>38.666666666666664</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="3"/>
@@ -2710,18 +2710,18 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B68">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" si="2"/>
-        <v>151.02040816326533</v>
+        <v>31.249999999999993</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Obesidad 1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,15 +2729,15 @@
         <v>34</v>
       </c>
       <c r="B69">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>11.764705882352942</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Desnutrición severa</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,15 +2745,15 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>25.390624999999996</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>sobrepeso</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,18 +2790,18 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>24.221453287197235</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,43 +2809,43 @@
         <v>82</v>
       </c>
       <c r="B74">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="2"/>
-        <v>128.12499999999997</v>
+        <v>22.714681440443215</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B75">
         <v>1.4</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" si="2"/>
-        <v>7.6530612244897966</v>
+        <v>20.408163265306126</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
+        <v>Bajo Peso</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B76">
         <v>1.5</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" si="2"/>
-        <v>13.333333333333334</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="3"/>
@@ -2857,15 +2857,15 @@
         <v>62</v>
       </c>
       <c r="B77">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" si="2"/>
-        <v>1549.9999999999998</v>
+        <v>24.218749999999996</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,18 +2902,18 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B80">
         <v>1.3</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" si="2"/>
-        <v>5.9171597633136086</v>
+        <v>17.751479289940825</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
+        <v>Desnutrición moderada</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3046,18 +3046,18 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B89">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="2">
         <f t="shared" si="2"/>
-        <v>224.99999999999994</v>
+        <v>20</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Bajo Peso</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,15 +3065,15 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="C90" s="2">
         <f t="shared" si="2"/>
-        <v>340</v>
+        <v>23.545706371191137</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3081,11 +3081,11 @@
         <v>70</v>
       </c>
       <c r="B91">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C91" s="2">
         <f t="shared" si="2"/>
-        <v>48.611111111111114</v>
+        <v>35.714285714285722</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="3"/>
@@ -3094,18 +3094,18 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B92">
         <v>1.9</v>
       </c>
       <c r="C92" s="2">
         <f t="shared" si="2"/>
-        <v>10.803324099722992</v>
+        <v>19.390581717451525</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
+        <v>Bajo Peso</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3158,18 +3158,18 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B96">
         <v>1.4</v>
       </c>
       <c r="C96" s="2">
         <f t="shared" si="2"/>
-        <v>9.183673469387756</v>
+        <v>22.95918367346939</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,18 +3222,18 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B100">
         <v>1.4</v>
       </c>
       <c r="C100" s="2">
         <f t="shared" si="4"/>
-        <v>7.6530612244897966</v>
+        <v>20.408163265306126</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
-        <v>Desnutrición severa</v>
+        <v>Bajo Peso</v>
       </c>
     </row>
   </sheetData>

--- a/imc.xlsx
+++ b/imc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E63F20E-B8BF-4CA9-982A-7EF205CDD2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE8AC27-7B37-41BD-ABCC-A153B1FEE2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ECF86FEB-C7C1-468F-B834-140B62F6AA0D}"/>
   </bookViews>
@@ -3001,15 +3001,15 @@
         <v>51</v>
       </c>
       <c r="B86">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="C86" s="2">
         <f t="shared" si="2"/>
-        <v>318.74999999999994</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,15 +3017,15 @@
         <v>51</v>
       </c>
       <c r="B87">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="C87" s="2">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>26.020408163265309</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
+        <v>sobrepeso</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">

--- a/imc.xlsx
+++ b/imc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adiaz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salones\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE8AC27-7B37-41BD-ABCC-A153B1FEE2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953CEEA5-9910-4B07-BC97-5B1D40B8FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ECF86FEB-C7C1-468F-B834-140B62F6AA0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ECF86FEB-C7C1-468F-B834-140B62F6AA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1623,7 +1621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1634,11 +1632,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785940DD-2D2D-4E0B-B2E2-389BBAFE1975}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>74</v>
       </c>
@@ -1664,11 +1664,11 @@
         <v>22.839506172839506</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(C2&lt;16,"Desnutrición severa",IF(C2&lt;18.4,"Desnutrición moderada",IF(C2&lt;22,"Bajo Peso",IF(C2&lt;24.9,"Normal",IF(C2&lt;29.9,"sobrepeso",IF(C2&lt;34.9,"Obesidad 1",IF(C2&lt;29.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <f>IF(C2&lt;16,"Desnutrición severa",IF(C2&lt;18.4,"Desnutrición moderada",IF(C2&lt;22,"Bajo Peso",IF(C2&lt;24.9,"Normal",IF(C2&lt;29.9,"sobrepeso",IF(C2&lt;34.9,"Obesidad 1",IF(C2&lt;39.9,"Obesidad 2","Obesidad 3")))))))</f>
         <v>Normal</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>65</v>
       </c>
@@ -1680,11 +1680,11 @@
         <v>21.971335857220122</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D33" si="1">IF(C3&lt;16,"Desnutrición severa",IF(C3&lt;18.4,"Desnutrición moderada",IF(C3&lt;22,"Bajo Peso",IF(C3&lt;24.9,"Normal",IF(C3&lt;29.9,"sobrepeso",IF(C3&lt;34.9,"Obesidad 1",IF(C3&lt;29.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <f t="shared" ref="D3:D66" si="1">IF(C3&lt;16,"Desnutrición severa",IF(C3&lt;18.4,"Desnutrición moderada",IF(C3&lt;22,"Bajo Peso",IF(C3&lt;24.9,"Normal",IF(C3&lt;29.9,"sobrepeso",IF(C3&lt;34.9,"Obesidad 1",IF(C3&lt;39.9,"Obesidad 2","Obesidad 3")))))))</f>
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>78</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>120</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>110</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>65</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>70</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>83</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>26</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>58.0277777777778</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>Desnutrición moderada</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>54.144444444444503</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>110</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>92</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>150</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>38.6111111111111</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>34.727777777777803</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>74</v>
       </c>
@@ -1920,11 +1920,11 @@
         <v>23.889462809917354</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(C18&lt;16,"Desnutrición severa",IF(C18&lt;18.4,"Desnutrición moderada",IF(C18&lt;22,"Bajo Peso",IF(C18&lt;24.9,"Normal",IF(C18&lt;29.9,"sobrepeso",IF(C18&lt;34.9,"Obesidad 1",IF(C18&lt;29.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <f t="shared" si="1"/>
         <v>Normal</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>65</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>Desnutrición moderada</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>78</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>110</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>65</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>70</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>83</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>58.0277777777778</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>54.144444444444503</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>110</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>92</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>150</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>38.6111111111111</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>34.727777777777803</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13</v>
       </c>
@@ -2176,11 +2176,11 @@
         <v>10.743801652892561</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D97" si="3">IF(C34&lt;16,"Desnutrición severa",IF(C34&lt;18.4,"Desnutrición moderada",IF(C34&lt;22,"Bajo Peso",IF(C34&lt;24.9,"Normal",IF(C34&lt;29.9,"sobrepeso",IF(C34&lt;34.9,"Obesidad 1",IF(C34&lt;29.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <f t="shared" si="1"/>
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>47</v>
       </c>
@@ -2192,11 +2192,11 @@
         <v>38.842975206611563</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>51</v>
       </c>
@@ -2208,11 +2208,11 @@
         <v>35.416666666666671</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25</v>
       </c>
@@ -2224,11 +2224,11 @@
         <v>69.444444444444443</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
@@ -2240,11 +2240,11 @@
         <v>24.691358024691358</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Normal</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>25</v>
       </c>
@@ -2256,11 +2256,11 @@
         <v>12.755102040816329</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2272,11 +2272,11 @@
         <v>1.7301038062283738</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>76</v>
       </c>
@@ -2288,11 +2288,11 @@
         <v>93.827160493827151</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>90</v>
       </c>
@@ -2304,11 +2304,11 @@
         <v>53.254437869822482</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -2320,11 +2320,11 @@
         <v>4.8611111111111116</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>36</v>
       </c>
@@ -2336,11 +2336,11 @@
         <v>36</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>20</v>
       </c>
@@ -2352,11 +2352,11 @@
         <v>24.691358024691358</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Normal</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>70</v>
       </c>
@@ -2368,11 +2368,11 @@
         <v>24.221453287197235</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Normal</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>71</v>
       </c>
@@ -2384,11 +2384,11 @@
         <v>19.667590027700832</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>21</v>
       </c>
@@ -2400,11 +2400,11 @@
         <v>25.925925925925924</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>44</v>
       </c>
@@ -2416,11 +2416,11 @@
         <v>36.36363636363636</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>85</v>
       </c>
@@ -2432,11 +2432,11 @@
         <v>29.411764705882355</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>33</v>
       </c>
@@ -2448,11 +2448,11 @@
         <v>10.185185185185185</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>56</v>
       </c>
@@ -2464,11 +2464,11 @@
         <v>28.571428571428577</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>62</v>
       </c>
@@ -2480,11 +2480,11 @@
         <v>96.874999999999986</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>49</v>
       </c>
@@ -2496,11 +2496,11 @@
         <v>34.027777777777779</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>60</v>
       </c>
@@ -2512,11 +2512,11 @@
         <v>23.437499999999996</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Normal</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>40</v>
       </c>
@@ -2528,11 +2528,11 @@
         <v>17.777777777777779</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Desnutrición moderada</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>50</v>
       </c>
@@ -2544,11 +2544,11 @@
         <v>61.728395061728392</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>46</v>
       </c>
@@ -2560,11 +2560,11 @@
         <v>93.877551020408177</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>42</v>
       </c>
@@ -2576,11 +2576,11 @@
         <v>51.851851851851848</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>89</v>
       </c>
@@ -2592,11 +2592,11 @@
         <v>45.408163265306129</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>48</v>
       </c>
@@ -2608,11 +2608,11 @@
         <v>48</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>82</v>
       </c>
@@ -2624,11 +2624,11 @@
         <v>48.520710059171591</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>20</v>
       </c>
@@ -2640,11 +2640,11 @@
         <v>7.8124999999999982</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>45</v>
       </c>
@@ -2656,11 +2656,11 @@
         <v>22.95918367346939</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Normal</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>74</v>
       </c>
@@ -2672,11 +2672,11 @@
         <v>25.605536332179934</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>87</v>
       </c>
@@ -2688,11 +2688,11 @@
         <v>38.666666666666664</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>61</v>
       </c>
@@ -2704,11 +2704,11 @@
         <v>31.122448979591841</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D67:D100" si="3">IF(C67&lt;16,"Desnutrición severa",IF(C67&lt;18.4,"Desnutrición moderada",IF(C67&lt;22,"Bajo Peso",IF(C67&lt;24.9,"Normal",IF(C67&lt;29.9,"sobrepeso",IF(C67&lt;34.9,"Obesidad 1",IF(C67&lt;39.9,"Obesidad 2","Obesidad 3")))))))</f>
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>20</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>34</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>65</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>90</v>
       </c>
@@ -2769,10 +2769,10 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>82</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>40</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>35</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>62</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>73</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>24</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>30</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>Desnutrición moderada</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>72</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>85</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>64</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>57</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>46</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>51</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>51</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>73</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>20</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>85</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>70</v>
       </c>
@@ -3089,10 +3089,10 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>70</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>Bajo Peso</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>38</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>38</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>23</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>sobrepeso</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>45</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>61</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>Desnutrición moderada</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>49</v>
       </c>
@@ -3200,11 +3200,11 @@
         <v>60.493827160493822</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98:D100" si="5">IF(C98&lt;16,"Desnutrición severa",IF(C98&lt;18.4,"Desnutrición moderada",IF(C98&lt;22,"Bajo Peso",IF(C98&lt;24.9,"Normal",IF(C98&lt;29.9,"sobrepeso",IF(C98&lt;34.9,"Obesidad 1",IF(C98&lt;29.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <f t="shared" si="3"/>
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>31</v>
       </c>
@@ -3216,11 +3216,11 @@
         <v>8.5872576177285325</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Desnutrición severa</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>40</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>20.408163265306126</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>Bajo Peso</v>
       </c>
     </row>

--- a/imc.xlsx
+++ b/imc.xlsx
@@ -5,37 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salones\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953CEEA5-9910-4B07-BC97-5B1D40B8FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347712C7-FD98-4F38-A807-DBF42C80974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ECF86FEB-C7C1-468F-B834-140B62F6AA0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECF86FEB-C7C1-468F-B834-140B62F6AA0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="portada" sheetId="2" r:id="rId1"/>
     <sheet name="imc" sheetId="1" r:id="rId2"/>
+    <sheet name="Balance" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Peso</t>
   </si>
@@ -47,6 +42,27 @@
   </si>
   <si>
     <t>Clasificación</t>
+  </si>
+  <si>
+    <t>Bajo Peso</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Sobrepeso</t>
+  </si>
+  <si>
+    <t>Obesidad 1</t>
+  </si>
+  <si>
+    <t>Obesidad 2</t>
+  </si>
+  <si>
+    <t>Obesidad 3</t>
+  </si>
+  <si>
+    <t>Cuenta de Clasificación</t>
   </si>
 </sst>
 </file>
@@ -95,10 +111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -124,10 +142,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -172,17 +190,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>imc!$C$1</c:f>
+              <c:f>imc!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IMC</c:v>
+                  <c:v>Altura</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -193,11 +211,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -205,10 +223,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>imc!$A$2:$A$33</c:f>
+              <c:f>imc!$A$2:$A$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>74</c:v>
                 </c:pt>
@@ -222,7 +240,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>65</c:v>
@@ -297,118 +315,1246 @@
                   <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
                   <c:v>38.6111111111111</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
                   <c:v>34.727777777777803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>imc!$C$2:$C$33</c:f>
+              <c:f>imc!$B$2:$B$221</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
-                  <c:v>22.839506172839506</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.971335857220122</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.468749999999993</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.333333333333343</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.122448979591844</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.061728395061728</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.873015873015872</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.75</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3935950413223139</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.092993380653336</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.432597043707077</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.203782208861693</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.706396758828209</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>76.530612244897966</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.360246059207995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.565538194444452</c:v>
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>1.89888888888889</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>1.93688888888889</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>1.97488888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>2.0128888888888898</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0">
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.889462809917354</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.026617764829481</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.791469576610623</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.767762409667302</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27.148952646425034</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>33.163265306122454</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.221453287197235</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>32.421874999999993</c:v>
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0">
+                  <c:v>1.89888888888889</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.0">
+                  <c:v>1.93688888888889</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0">
+                  <c:v>1.97488888888889</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.0">
+                  <c:v>2.0128888888888898</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.0">
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0246913580246915</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.614581455441389</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.150173611111128</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76.388888888888886</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.938775510204088</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46.296296296296291</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.7553539934492282</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.6819444444444507</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,7 +1562,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3415-4745-A562-B8613131C7B9}"/>
+              <c16:uniqueId val="{00000000-23B4-493B-B42F-7321779A701F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -428,11 +1574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1840858768"/>
-        <c:axId val="1840845872"/>
+        <c:axId val="694777264"/>
+        <c:axId val="694776848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1840858768"/>
+        <c:axId val="694777264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,12 +1635,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1840845872"/>
+        <c:crossAx val="694776848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1840845872"/>
+        <c:axId val="694776848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +1660,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -551,7 +1697,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1840858768"/>
+        <c:crossAx val="694777264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -607,13 +1753,417 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[imc.xlsx]Balance!TablaDinámica5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Cuenta de Clasificación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Balance!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Balance!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bajo Peso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Obesidad 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Obesidad 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Obesidad 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sobrepeso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Balance!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C30B-4980-8EA0-DEF3686727E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="731685872"/>
+        <c:axId val="776725968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="731685872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776725968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="776725968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731685872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1163,6 +2713,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1231,42 +3284,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4761D8DE-1BEE-D4CA-5B4F-8968145D10A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1294,7 +3311,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1317,7 +3334,1536 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AE451A-5106-406D-9A90-1A85B7DC9EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9739EE31-4AD7-409D-AFED-E74B5A6EEDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="USUARIO" refreshedDate="45588.713791203707" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="220" xr:uid="{98B6AF17-A44F-4371-8392-B2C8345605F5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D221" sheet="imc"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Peso" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5" maxValue="400"/>
+    </cacheField>
+    <cacheField name="Altura" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.6" maxValue="2.1"/>
+    </cacheField>
+    <cacheField name="IMC" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.7301038062283738" maxValue="127.34693877551021"/>
+    </cacheField>
+    <cacheField name="Clasificación" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Normal"/>
+        <s v="Obesidad 1"/>
+        <s v="Obesidad 3"/>
+        <s v="Obesidad 2"/>
+        <s v="Bajo Peso"/>
+        <s v="Sobrepeso"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="220">
+  <r>
+    <n v="74"/>
+    <n v="1.8"/>
+    <n v="22.839506172839506"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="1.72"/>
+    <n v="21.971335857220122"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="1.6"/>
+    <n v="30.468749999999993"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <n v="1.2"/>
+    <n v="83.333333333333343"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="1.6"/>
+    <n v="35.156249999999993"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="1.8"/>
+    <n v="20.061728395061728"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="2.1"/>
+    <n v="15.873015873015872"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="2"/>
+    <n v="20.75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="1.76"/>
+    <n v="8.3935950413223139"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="58.0277777777778"/>
+    <n v="1.89888888888889"/>
+    <n v="16.092993380653336"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="54.144444444444503"/>
+    <n v="1.93688888888889"/>
+    <n v="14.432597043707077"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="1.97488888888889"/>
+    <n v="28.203782208861693"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="2.0128888888888898"/>
+    <n v="22.706396758828209"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <n v="1.4"/>
+    <n v="76.530612244897966"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="38.6111111111111"/>
+    <n v="1.7"/>
+    <n v="13.360246059207995"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="34.727777777777803"/>
+    <n v="1.6"/>
+    <n v="13.565538194444452"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="1.76"/>
+    <n v="23.889462809917354"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="1.89888888888889"/>
+    <n v="18.026617764829481"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="1.93688888888889"/>
+    <n v="20.791469576610623"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <n v="1.97488888888889"/>
+    <n v="30.767762409667302"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="2.0128888888888898"/>
+    <n v="27.148952646425034"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="1.4"/>
+    <n v="33.163265306122454"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="1.7"/>
+    <n v="24.221453287197235"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="1.6"/>
+    <n v="32.421874999999993"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="1.8"/>
+    <n v="8.0246913580246915"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="58.0277777777778"/>
+    <n v="1.72"/>
+    <n v="19.614581455441389"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="54.144444444444503"/>
+    <n v="1.6"/>
+    <n v="21.150173611111128"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="1.2"/>
+    <n v="76.388888888888886"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="1.4"/>
+    <n v="46.938775510204088"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="1.8"/>
+    <n v="30.864197530864196"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="38.6111111111111"/>
+    <n v="2.1"/>
+    <n v="8.7553539934492282"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="34.727777777777803"/>
+    <n v="2"/>
+    <n v="8.6819444444444507"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="1.1000000000000001"/>
+    <n v="10.743801652892561"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="1.1000000000000001"/>
+    <n v="38.842975206611563"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="1.2"/>
+    <n v="34.722222222222221"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="0.6"/>
+    <n v="69.444444444444443"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="0.9"/>
+    <n v="24.691358024691358"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="1.4"/>
+    <n v="12.755102040816329"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="1.7"/>
+    <n v="1.7301038062283738"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="0.9"/>
+    <n v="93.827160493827151"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="1.3"/>
+    <n v="53.254437869822482"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1.2"/>
+    <n v="4.8611111111111116"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="1"/>
+    <n v="36"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="0.9"/>
+    <n v="24.691358024691358"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="1.7"/>
+    <n v="24.221453287197235"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="1.9"/>
+    <n v="19.667590027700832"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="0.9"/>
+    <n v="25.925925925925924"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="1.1000000000000001"/>
+    <n v="36.36363636363636"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="1.7"/>
+    <n v="29.411764705882355"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="1.8"/>
+    <n v="10.185185185185185"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="1.4"/>
+    <n v="28.571428571428577"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="0.8"/>
+    <n v="96.874999999999986"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="1.2"/>
+    <n v="34.027777777777779"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="1.6"/>
+    <n v="23.437499999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="1.5"/>
+    <n v="17.777777777777779"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="0.9"/>
+    <n v="61.728395061728392"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="1.1000000000000001"/>
+    <n v="38.016528925619831"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="1.05"/>
+    <n v="38.095238095238095"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="1.4"/>
+    <n v="33.673469387755105"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="1"/>
+    <n v="48"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="1.3"/>
+    <n v="48.520710059171591"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="1.6"/>
+    <n v="7.8124999999999982"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="1.4"/>
+    <n v="22.95918367346939"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="1.7"/>
+    <n v="25.605536332179934"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="1.5"/>
+    <n v="38.666666666666664"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="1.4"/>
+    <n v="31.122448979591841"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="0.8"/>
+    <n v="31.249999999999993"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="1.7"/>
+    <n v="11.764705882352942"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="1.6"/>
+    <n v="25.390624999999996"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="1.6"/>
+    <n v="35.156249999999993"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="0.9"/>
+    <n v="28.39506172839506"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="1.7"/>
+    <n v="24.221453287197235"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="1.9"/>
+    <n v="22.714681440443215"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="1.4"/>
+    <n v="20.408163265306126"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="1.5"/>
+    <n v="15.555555555555555"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="1.6"/>
+    <n v="24.218749999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="1.9"/>
+    <n v="20.221606648199447"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="0.8"/>
+    <n v="37.499999999999993"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="1.3"/>
+    <n v="17.751479289940825"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="1.8"/>
+    <n v="22.222222222222221"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="1.3"/>
+    <n v="50.295857988165679"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="1"/>
+    <n v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="1.5"/>
+    <n v="25.333333333333332"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="1"/>
+    <n v="46"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="1.5"/>
+    <n v="22.666666666666668"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="1.4"/>
+    <n v="26.020408163265309"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="1.6"/>
+    <n v="28.515624999999993"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="1.9"/>
+    <n v="23.545706371191137"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="1.4"/>
+    <n v="35.714285714285722"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="1.9"/>
+    <n v="19.390581717451525"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="1.7"/>
+    <n v="13.148788927335641"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="1.3"/>
+    <n v="22.485207100591715"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="0.9"/>
+    <n v="28.39506172839506"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="1.4"/>
+    <n v="22.95918367346939"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="1.9"/>
+    <n v="16.897506925207757"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="0.9"/>
+    <n v="60.493827160493822"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="1.9"/>
+    <n v="8.5872576177285325"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="1.4"/>
+    <n v="20.408163265306126"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="1.5"/>
+    <n v="15.555555555555555"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="1.5"/>
+    <n v="15.555555555555555"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="1.4"/>
+    <n v="16.326530612244902"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="1.6"/>
+    <n v="14.453124999999996"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="1.3"/>
+    <n v="16.568047337278106"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="1.5"/>
+    <n v="17.777777777777779"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="1.4"/>
+    <n v="15.306122448979593"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="1.5"/>
+    <n v="16.888888888888889"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="1.6"/>
+    <n v="12.890624999999998"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="1.7"/>
+    <n v="10.034602076124569"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="1.5"/>
+    <n v="15.111111111111111"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="1.4"/>
+    <n v="18.367346938775512"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="1.6"/>
+    <n v="12.109374999999998"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="1.5"/>
+    <n v="12"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="1.4"/>
+    <n v="20.91836734693878"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="1.8"/>
+    <n v="12.037037037037036"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="1.6"/>
+    <n v="17.578124999999996"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="1.4"/>
+    <n v="21.428571428571431"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="1.5"/>
+    <n v="19.111111111111111"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="1.3"/>
+    <n v="15.384615384615383"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="1.2"/>
+    <n v="16.666666666666668"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="1.1000000000000001"/>
+    <n v="19.008264462809915"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <n v="1.8"/>
+    <n v="23.148148148148145"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <n v="1.7"/>
+    <n v="23.529411764705884"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="1.6"/>
+    <n v="28.124999999999993"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="1.9"/>
+    <n v="22.1606648199446"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="1.75"/>
+    <n v="22.530612244897959"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <n v="1.6"/>
+    <n v="30.078124999999993"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="1.8"/>
+    <n v="22.839506172839506"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="1.75"/>
+    <n v="22.857142857142858"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="1.6"/>
+    <n v="28.515624999999993"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="1.7"/>
+    <n v="26.989619377162633"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="1.65"/>
+    <n v="27.915518824609737"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <n v="1.85"/>
+    <n v="23.666910153396639"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="1.8"/>
+    <n v="25.925925925925924"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="1.75"/>
+    <n v="25.795918367346939"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <n v="1.6"/>
+    <n v="26.171874999999996"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="1.85"/>
+    <n v="25.712198685171657"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="1.8"/>
+    <n v="21.913580246913579"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="1.65"/>
+    <n v="24.242424242424246"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="1.7"/>
+    <n v="29.411764705882355"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="1.9"/>
+    <n v="22.714681440443215"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="1.5"/>
+    <n v="28.444444444444443"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="1.8"/>
+    <n v="25.308641975308639"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="1.7"/>
+    <n v="31.141868512110729"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="1.75"/>
+    <n v="27.755102040816325"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="1.9"/>
+    <n v="24.37673130193906"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="1.8"/>
+    <n v="28.086419753086417"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="1.6"/>
+    <n v="32.812499999999993"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="1.7"/>
+    <n v="30.103806228373706"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="1.75"/>
+    <n v="30.040816326530614"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="1.9"/>
+    <n v="23.822714681440445"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="1.85"/>
+    <n v="26.004382761139514"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="1.8"/>
+    <n v="28.703703703703702"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="1.9"/>
+    <n v="26.038781163434905"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="1.7"/>
+    <n v="32.871972318339104"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <n v="1.75"/>
+    <n v="31.346938775510203"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="1.6"/>
+    <n v="37.890624999999993"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <n v="1.8"/>
+    <n v="30.246913580246911"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <n v="1.75"/>
+    <n v="32.326530612244895"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="1.6"/>
+    <n v="39.062499999999993"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <n v="1.85"/>
+    <n v="29.510591672753833"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <n v="1.7"/>
+    <n v="35.294117647058826"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="1.6"/>
+    <n v="37.109374999999993"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <n v="1.7"/>
+    <n v="36.332179930795853"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="1.8"/>
+    <n v="30.864197530864196"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="1.7"/>
+    <n v="38.062283737024224"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <n v="1.9"/>
+    <n v="33.2409972299169"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <n v="1.75"/>
+    <n v="37.551020408163268"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <n v="1.65"/>
+    <n v="41.138659320477508"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <n v="1.8"/>
+    <n v="38.580246913580247"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <n v="1.7"/>
+    <n v="44.982698961937722"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <n v="1.9"/>
+    <n v="37.396121883656512"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <n v="1.75"/>
+    <n v="45.714285714285715"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <n v="1.85"/>
+    <n v="36.523009495982464"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <n v="1.8"/>
+    <n v="36.419753086419753"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <n v="1.6"/>
+    <n v="47.656249999999993"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <n v="1.9"/>
+    <n v="36.56509695290859"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <n v="1.8"/>
+    <n v="42.283950617283949"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <n v="1.75"/>
+    <n v="46.367346938775512"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <n v="1.7"/>
+    <n v="47.750865051903119"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <n v="1.85"/>
+    <n v="42.074506939371801"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <n v="1.8"/>
+    <n v="45.987654320987652"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <n v="1.8"/>
+    <n v="37.037037037037038"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <n v="1.9"/>
+    <n v="37.396121883656512"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <n v="1.9"/>
+    <n v="38.78116343490305"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <n v="1.6"/>
+    <n v="58.593749999999986"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <n v="1.7"/>
+    <n v="53.63321799307959"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <n v="1.85"/>
+    <n v="46.749452154857558"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <n v="1.8"/>
+    <n v="50.925925925925924"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <n v="1.9"/>
+    <n v="47.091412742382275"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <n v="1.75"/>
+    <n v="57.142857142857146"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <n v="1.85"/>
+    <n v="52.593133674214748"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <n v="1.8"/>
+    <n v="57.098765432098759"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <n v="1.75"/>
+    <n v="62.04081632653061"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <n v="1.85"/>
+    <n v="56.975894813732644"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <n v="1.9"/>
+    <n v="55.4016620498615"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <n v="1.8"/>
+    <n v="64.81481481481481"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <n v="1.85"/>
+    <n v="64.280496712929136"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="230"/>
+    <n v="1.9"/>
+    <n v="63.711911357340725"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <n v="1.8"/>
+    <n v="74.074074074074076"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <n v="1.5"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <n v="1.8"/>
+    <n v="61.728395061728392"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <n v="1.6"/>
+    <n v="85.937499999999986"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <n v="1.9"/>
+    <n v="66.4819944598338"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="250"/>
+    <n v="1.7"/>
+    <n v="86.505190311418701"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="260"/>
+    <n v="1.8"/>
+    <n v="80.246913580246911"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="270"/>
+    <n v="1.75"/>
+    <n v="88.163265306122454"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="280"/>
+    <n v="1.85"/>
+    <n v="81.811541271000721"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="290"/>
+    <n v="1.9"/>
+    <n v="80.332409972299175"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="300"/>
+    <n v="1.8"/>
+    <n v="92.592592592592581"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="310"/>
+    <n v="1.75"/>
+    <n v="101.22448979591837"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="320"/>
+    <n v="1.85"/>
+    <n v="93.498904309715115"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="330"/>
+    <n v="1.9"/>
+    <n v="91.412742382271475"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="340"/>
+    <n v="1.8"/>
+    <n v="104.93827160493827"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="350"/>
+    <n v="1.75"/>
+    <n v="114.28571428571429"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="360"/>
+    <n v="1.85"/>
+    <n v="105.1862673484295"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="370"/>
+    <n v="1.9"/>
+    <n v="102.49307479224377"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="380"/>
+    <n v="1.8"/>
+    <n v="117.28395061728395"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="390"/>
+    <n v="1.75"/>
+    <n v="127.34693877551021"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="400"/>
+    <n v="1.9"/>
+    <n v="110.803324099723"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F1CB766-4D73-49DF-AF9C-BCFA9B922AEF}" name="TablaDinámica5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="165" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Clasificación" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1619,9 +5165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9143C3-64DC-4ABC-BE3B-E6860AF7BF0B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1630,15 +5176,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785940DD-2D2D-4E0B-B2E2-389BBAFE1975}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +5196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>74</v>
       </c>
@@ -1664,11 +5208,11 @@
         <v>22.839506172839506</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(C2&lt;16,"Desnutrición severa",IF(C2&lt;18.4,"Desnutrición moderada",IF(C2&lt;22,"Bajo Peso",IF(C2&lt;24.9,"Normal",IF(C2&lt;29.9,"sobrepeso",IF(C2&lt;34.9,"Obesidad 1",IF(C2&lt;39.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <f>IF(C2&lt;18.5,"Bajo Peso",IF(C2&lt;24.9,"Normal",IF(C2&lt;29.9,"Sobrepeso",IF(C2&lt;34.9,"Obesidad 1",IF(C2&lt;39.9,"Obesidad 2","Obesidad 3")))))</f>
         <v>Normal</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>65</v>
       </c>
@@ -1680,11 +5224,11 @@
         <v>21.971335857220122</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&lt;16,"Desnutrición severa",IF(C3&lt;18.4,"Desnutrición moderada",IF(C3&lt;22,"Bajo Peso",IF(C3&lt;24.9,"Normal",IF(C3&lt;29.9,"sobrepeso",IF(C3&lt;34.9,"Obesidad 1",IF(C3&lt;39.9,"Obesidad 2","Obesidad 3")))))))</f>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D3:D66" si="1">IF(C3&lt;18.5,"Bajo Peso",IF(C3&lt;24.9,"Normal",IF(C3&lt;29.9,"Sobrepeso",IF(C3&lt;34.9,"Obesidad 1",IF(C3&lt;39.9,"Obesidad 2","Obesidad 3")))))</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>78</v>
       </c>
@@ -1700,7 +5244,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120</v>
       </c>
@@ -1716,23 +5260,23 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>56.122448979591844</v>
+        <v>35.156249999999993</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>65</v>
       </c>
@@ -1745,10 +5289,10 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70</v>
       </c>
@@ -1761,10 +5305,10 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>83</v>
       </c>
@@ -1777,10 +5321,10 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>26</v>
       </c>
@@ -1793,10 +5337,10 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>58.0277777777778</v>
       </c>
@@ -1809,10 +5353,10 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición moderada</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>54.144444444444503</v>
       </c>
@@ -1825,10 +5369,10 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
@@ -1841,10 +5385,10 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>92</v>
       </c>
@@ -1860,7 +5404,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>150</v>
       </c>
@@ -1876,7 +5420,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>38.6111111111111</v>
       </c>
@@ -1889,10 +5433,10 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>34.727777777777803</v>
       </c>
@@ -1905,10 +5449,10 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>74</v>
       </c>
@@ -1924,7 +5468,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>65</v>
       </c>
@@ -1937,10 +5481,10 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición moderada</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>78</v>
       </c>
@@ -1953,10 +5497,10 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1972,7 +5516,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>110</v>
       </c>
@@ -1985,10 +5529,10 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>65</v>
       </c>
@@ -2004,7 +5548,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>70</v>
       </c>
@@ -2020,7 +5564,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>83</v>
       </c>
@@ -2036,7 +5580,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2049,10 +5593,10 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>58.0277777777778</v>
       </c>
@@ -2065,10 +5609,10 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>54.144444444444503</v>
       </c>
@@ -2081,10 +5625,10 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>110</v>
       </c>
@@ -2100,7 +5644,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>92</v>
       </c>
@@ -2116,23 +5660,23 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>1.8</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>46.296296296296291</v>
+        <v>30.864197530864196</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>38.6111111111111</v>
       </c>
@@ -2145,10 +5689,10 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34.727777777777803</v>
       </c>
@@ -2161,10 +5705,10 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -2177,10 +5721,10 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>47</v>
       </c>
@@ -2196,23 +5740,23 @@
         <v>Obesidad 2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>1.2</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="2"/>
-        <v>35.416666666666671</v>
+        <v>34.722222222222221</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
-        <v>Obesidad 2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>25</v>
       </c>
@@ -2228,7 +5772,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>20</v>
       </c>
@@ -2244,7 +5788,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25</v>
       </c>
@@ -2257,10 +5801,10 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2273,10 +5817,10 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>76</v>
       </c>
@@ -2292,7 +5836,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>90</v>
       </c>
@@ -2308,7 +5852,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -2321,10 +5865,10 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -2340,7 +5884,7 @@
         <v>Obesidad 2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -2356,7 +5900,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>70</v>
       </c>
@@ -2372,7 +5916,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>71</v>
       </c>
@@ -2385,10 +5929,10 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>21</v>
       </c>
@@ -2401,10 +5945,10 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -2420,7 +5964,7 @@
         <v>Obesidad 2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>85</v>
       </c>
@@ -2433,10 +5977,10 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>33</v>
       </c>
@@ -2449,10 +5993,10 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>56</v>
       </c>
@@ -2465,10 +6009,10 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>62</v>
       </c>
@@ -2484,7 +6028,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -2500,7 +6044,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>60</v>
       </c>
@@ -2516,7 +6060,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>40</v>
       </c>
@@ -2529,10 +6073,10 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición moderada</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -2548,55 +6092,55 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>46</v>
       </c>
       <c r="B58">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="2"/>
-        <v>93.877551020408177</v>
+        <v>38.016528925619831</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>42</v>
       </c>
       <c r="B59">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="2"/>
-        <v>51.851851851851848</v>
+        <v>38.095238095238095</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>1.4</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="2"/>
-        <v>45.408163265306129</v>
+        <v>33.673469387755105</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>48</v>
       </c>
@@ -2612,7 +6156,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>82</v>
       </c>
@@ -2628,7 +6172,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20</v>
       </c>
@@ -2641,10 +6185,10 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>45</v>
       </c>
@@ -2660,7 +6204,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>74</v>
       </c>
@@ -2673,10 +6217,10 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>87</v>
       </c>
@@ -2692,7 +6236,7 @@
         <v>Obesidad 2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>61</v>
       </c>
@@ -2704,11 +6248,11 @@
         <v>31.122448979591841</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D100" si="3">IF(C67&lt;16,"Desnutrición severa",IF(C67&lt;18.4,"Desnutrición moderada",IF(C67&lt;22,"Bajo Peso",IF(C67&lt;24.9,"Normal",IF(C67&lt;29.9,"sobrepeso",IF(C67&lt;34.9,"Obesidad 1",IF(C67&lt;39.9,"Obesidad 2","Obesidad 3")))))))</f>
+        <f t="shared" ref="D67:D130" si="3">IF(C67&lt;18.5,"Bajo Peso",IF(C67&lt;24.9,"Normal",IF(C67&lt;29.9,"Sobrepeso",IF(C67&lt;34.9,"Obesidad 1",IF(C67&lt;39.9,"Obesidad 2","Obesidad 3")))))</f>
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20</v>
       </c>
@@ -2724,7 +6268,7 @@
         <v>Obesidad 1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>34</v>
       </c>
@@ -2737,10 +6281,10 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>65</v>
       </c>
@@ -2753,10 +6297,10 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="3"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>90</v>
       </c>
@@ -2772,7 +6316,7 @@
         <v>Obesidad 2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>23</v>
       </c>
@@ -2785,10 +6329,10 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="3"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2804,7 +6348,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>82</v>
       </c>
@@ -2820,7 +6364,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>40</v>
       </c>
@@ -2833,10 +6377,10 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>35</v>
       </c>
@@ -2849,10 +6393,10 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>62</v>
       </c>
@@ -2868,7 +6412,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>73</v>
       </c>
@@ -2881,26 +6425,26 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="3"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>24</v>
       </c>
       <c r="B79">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <v>37.499999999999993</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>30</v>
       </c>
@@ -2913,10 +6457,10 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición moderada</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>72</v>
       </c>
@@ -2932,7 +6476,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>85</v>
       </c>
@@ -2948,23 +6492,23 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="3"/>
-        <v>Obesidad 3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>57</v>
       </c>
@@ -2977,10 +6521,10 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="3"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>46</v>
       </c>
@@ -2996,7 +6540,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>51</v>
       </c>
@@ -3012,7 +6556,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>51</v>
       </c>
@@ -3025,10 +6569,10 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="3"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>73</v>
       </c>
@@ -3041,10 +6585,10 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="3"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20</v>
       </c>
@@ -3057,10 +6601,10 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="3"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>85</v>
       </c>
@@ -3076,7 +6620,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>70</v>
       </c>
@@ -3092,7 +6636,7 @@
         <v>Obesidad 2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>70</v>
       </c>
@@ -3105,10 +6649,10 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="3"/>
-        <v>Bajo Peso</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>38</v>
       </c>
@@ -3121,10 +6665,10 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>38</v>
       </c>
@@ -3140,7 +6684,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>23</v>
       </c>
@@ -3153,10 +6697,10 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="3"/>
-        <v>sobrepeso</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>45</v>
       </c>
@@ -3172,7 +6716,7 @@
         <v>Normal</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>61</v>
       </c>
@@ -3185,10 +6729,10 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición moderada</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>49</v>
       </c>
@@ -3204,7 +6748,7 @@
         <v>Obesidad 3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>31</v>
       </c>
@@ -3217,10 +6761,10 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="3"/>
-        <v>Desnutrición severa</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>40</v>
       </c>
@@ -3233,11 +6777,2023 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>35</v>
+      </c>
+      <c r="B101">
+        <v>1.5</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" ref="C101" si="5">A101/B101^2</f>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="3"/>
         <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>35</v>
+      </c>
+      <c r="B102">
+        <v>1.5</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" ref="C102:C165" si="6">A102/B102^2</f>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>32</v>
+      </c>
+      <c r="B103">
+        <v>1.4</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="6"/>
+        <v>16.326530612244902</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>37</v>
+      </c>
+      <c r="B104">
+        <v>1.6</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" si="6"/>
+        <v>14.453124999999996</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>28</v>
+      </c>
+      <c r="B105">
+        <v>1.3</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="6"/>
+        <v>16.568047337278106</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>40</v>
+      </c>
+      <c r="B106">
+        <v>1.5</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="6"/>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>30</v>
+      </c>
+      <c r="B107">
+        <v>1.4</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" si="6"/>
+        <v>15.306122448979593</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>38</v>
+      </c>
+      <c r="B108">
+        <v>1.5</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" si="6"/>
+        <v>16.888888888888889</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>33</v>
+      </c>
+      <c r="B109">
+        <v>1.6</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" si="6"/>
+        <v>12.890624999999998</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>29</v>
+      </c>
+      <c r="B110">
+        <v>1.7</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" si="6"/>
+        <v>10.034602076124569</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>34</v>
+      </c>
+      <c r="B111">
+        <v>1.5</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" si="6"/>
+        <v>15.111111111111111</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>36</v>
+      </c>
+      <c r="B112">
+        <v>1.4</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" si="6"/>
+        <v>18.367346938775512</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>31</v>
+      </c>
+      <c r="B113">
+        <v>1.6</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="6"/>
+        <v>12.109374999999998</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>27</v>
+      </c>
+      <c r="B114">
+        <v>1.5</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>41</v>
+      </c>
+      <c r="B115">
+        <v>1.4</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" si="6"/>
+        <v>20.91836734693878</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>39</v>
+      </c>
+      <c r="B116">
+        <v>1.8</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" si="6"/>
+        <v>12.037037037037036</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>45</v>
+      </c>
+      <c r="B117">
+        <v>1.6</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" si="6"/>
+        <v>17.578124999999996</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>42</v>
+      </c>
+      <c r="B118">
+        <v>1.4</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" si="6"/>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>43</v>
+      </c>
+      <c r="B119">
+        <v>1.5</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" si="6"/>
+        <v>19.111111111111111</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>26</v>
+      </c>
+      <c r="B120">
+        <v>1.3</v>
+      </c>
+      <c r="C120" s="2">
+        <f t="shared" si="6"/>
+        <v>15.384615384615383</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>24</v>
+      </c>
+      <c r="B121">
+        <v>1.2</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" si="6"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="3"/>
+        <v>Bajo Peso</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>23</v>
+      </c>
+      <c r="B122">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="6"/>
+        <v>19.008264462809915</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>75</v>
+      </c>
+      <c r="B123">
+        <v>1.8</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" si="6"/>
+        <v>23.148148148148145</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>68</v>
+      </c>
+      <c r="B124">
+        <v>1.7</v>
+      </c>
+      <c r="C124" s="2">
+        <f t="shared" si="6"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>72</v>
+      </c>
+      <c r="B125">
+        <v>1.6</v>
+      </c>
+      <c r="C125" s="2">
+        <f t="shared" si="6"/>
+        <v>28.124999999999993</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="3"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>80</v>
+      </c>
+      <c r="B126">
+        <v>1.9</v>
+      </c>
+      <c r="C126" s="2">
+        <f t="shared" si="6"/>
+        <v>22.1606648199446</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>69</v>
+      </c>
+      <c r="B127">
+        <v>1.75</v>
+      </c>
+      <c r="C127" s="2">
+        <f t="shared" si="6"/>
+        <v>22.530612244897959</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>77</v>
+      </c>
+      <c r="B128">
+        <v>1.6</v>
+      </c>
+      <c r="C128" s="2">
+        <f t="shared" si="6"/>
+        <v>30.078124999999993</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="3"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>74</v>
+      </c>
+      <c r="B129">
+        <v>1.8</v>
+      </c>
+      <c r="C129" s="2">
+        <f t="shared" si="6"/>
+        <v>22.839506172839506</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>70</v>
+      </c>
+      <c r="B130">
+        <v>1.75</v>
+      </c>
+      <c r="C130" s="2">
+        <f t="shared" si="6"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>73</v>
+      </c>
+      <c r="B131">
+        <v>1.6</v>
+      </c>
+      <c r="C131" s="2">
+        <f t="shared" si="6"/>
+        <v>28.515624999999993</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="7">IF(C131&lt;18.5,"Bajo Peso",IF(C131&lt;24.9,"Normal",IF(C131&lt;29.9,"Sobrepeso",IF(C131&lt;34.9,"Obesidad 1",IF(C131&lt;39.9,"Obesidad 2","Obesidad 3")))))</f>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>78</v>
+      </c>
+      <c r="B132">
+        <v>1.7</v>
+      </c>
+      <c r="C132" s="2">
+        <f t="shared" si="6"/>
+        <v>26.989619377162633</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>76</v>
+      </c>
+      <c r="B133">
+        <v>1.65</v>
+      </c>
+      <c r="C133" s="2">
+        <f t="shared" si="6"/>
+        <v>27.915518824609737</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>81</v>
+      </c>
+      <c r="B134">
+        <v>1.85</v>
+      </c>
+      <c r="C134" s="2">
+        <f t="shared" si="6"/>
+        <v>23.666910153396639</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="7"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>84</v>
+      </c>
+      <c r="B135">
+        <v>1.8</v>
+      </c>
+      <c r="C135" s="2">
+        <f t="shared" si="6"/>
+        <v>25.925925925925924</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>79</v>
+      </c>
+      <c r="B136">
+        <v>1.75</v>
+      </c>
+      <c r="C136" s="2">
+        <f t="shared" si="6"/>
+        <v>25.795918367346939</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>67</v>
+      </c>
+      <c r="B137">
+        <v>1.6</v>
+      </c>
+      <c r="C137" s="2">
+        <f t="shared" si="6"/>
+        <v>26.171874999999996</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>88</v>
+      </c>
+      <c r="B138">
+        <v>1.85</v>
+      </c>
+      <c r="C138" s="2">
+        <f t="shared" si="6"/>
+        <v>25.712198685171657</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>71</v>
+      </c>
+      <c r="B139">
+        <v>1.8</v>
+      </c>
+      <c r="C139" s="2">
+        <f t="shared" si="6"/>
+        <v>21.913580246913579</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="7"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>66</v>
+      </c>
+      <c r="B140">
+        <v>1.65</v>
+      </c>
+      <c r="C140" s="2">
+        <f t="shared" si="6"/>
+        <v>24.242424242424246</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="7"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>85</v>
+      </c>
+      <c r="B141">
+        <v>1.7</v>
+      </c>
+      <c r="C141" s="2">
+        <f t="shared" si="6"/>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>82</v>
+      </c>
+      <c r="B142">
+        <v>1.9</v>
+      </c>
+      <c r="C142" s="2">
+        <f t="shared" si="6"/>
+        <v>22.714681440443215</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="7"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>64</v>
+      </c>
+      <c r="B143">
+        <v>1.5</v>
+      </c>
+      <c r="C143" s="2">
+        <f t="shared" si="6"/>
+        <v>28.444444444444443</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>82</v>
+      </c>
+      <c r="B144">
+        <v>1.8</v>
+      </c>
+      <c r="C144" s="2">
+        <f t="shared" si="6"/>
+        <v>25.308641975308639</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>90</v>
+      </c>
+      <c r="B145">
+        <v>1.7</v>
+      </c>
+      <c r="C145" s="2">
+        <f t="shared" si="6"/>
+        <v>31.141868512110729</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>85</v>
+      </c>
+      <c r="B146">
+        <v>1.75</v>
+      </c>
+      <c r="C146" s="2">
+        <f t="shared" si="6"/>
+        <v>27.755102040816325</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>88</v>
+      </c>
+      <c r="B147">
+        <v>1.9</v>
+      </c>
+      <c r="C147" s="2">
+        <f t="shared" si="6"/>
+        <v>24.37673130193906</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="7"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>91</v>
+      </c>
+      <c r="B148">
+        <v>1.8</v>
+      </c>
+      <c r="C148" s="2">
+        <f t="shared" si="6"/>
+        <v>28.086419753086417</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>84</v>
+      </c>
+      <c r="B149">
+        <v>1.6</v>
+      </c>
+      <c r="C149" s="2">
+        <f t="shared" si="6"/>
+        <v>32.812499999999993</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>87</v>
+      </c>
+      <c r="B150">
+        <v>1.7</v>
+      </c>
+      <c r="C150" s="2">
+        <f t="shared" si="6"/>
+        <v>30.103806228373706</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>92</v>
+      </c>
+      <c r="B151">
+        <v>1.75</v>
+      </c>
+      <c r="C151" s="2">
+        <f t="shared" si="6"/>
+        <v>30.040816326530614</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>86</v>
+      </c>
+      <c r="B152">
+        <v>1.9</v>
+      </c>
+      <c r="C152" s="2">
+        <f t="shared" si="6"/>
+        <v>23.822714681440445</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="7"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>89</v>
+      </c>
+      <c r="B153">
+        <v>1.85</v>
+      </c>
+      <c r="C153" s="2">
+        <f t="shared" si="6"/>
+        <v>26.004382761139514</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>93</v>
+      </c>
+      <c r="B154">
+        <v>1.8</v>
+      </c>
+      <c r="C154" s="2">
+        <f t="shared" si="6"/>
+        <v>28.703703703703702</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>94</v>
+      </c>
+      <c r="B155">
+        <v>1.9</v>
+      </c>
+      <c r="C155" s="2">
+        <f t="shared" si="6"/>
+        <v>26.038781163434905</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>95</v>
+      </c>
+      <c r="B156">
+        <v>1.7</v>
+      </c>
+      <c r="C156" s="2">
+        <f t="shared" si="6"/>
+        <v>32.871972318339104</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>96</v>
+      </c>
+      <c r="B157">
+        <v>1.75</v>
+      </c>
+      <c r="C157" s="2">
+        <f t="shared" si="6"/>
+        <v>31.346938775510203</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>97</v>
+      </c>
+      <c r="B158">
+        <v>1.6</v>
+      </c>
+      <c r="C158" s="2">
+        <f t="shared" si="6"/>
+        <v>37.890624999999993</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>98</v>
+      </c>
+      <c r="B159">
+        <v>1.8</v>
+      </c>
+      <c r="C159" s="2">
+        <f t="shared" si="6"/>
+        <v>30.246913580246911</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>99</v>
+      </c>
+      <c r="B160">
+        <v>1.75</v>
+      </c>
+      <c r="C160" s="2">
+        <f t="shared" si="6"/>
+        <v>32.326530612244895</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>100</v>
+      </c>
+      <c r="B161">
+        <v>1.6</v>
+      </c>
+      <c r="C161" s="2">
+        <f t="shared" si="6"/>
+        <v>39.062499999999993</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>101</v>
+      </c>
+      <c r="B162">
+        <v>1.85</v>
+      </c>
+      <c r="C162" s="2">
+        <f t="shared" si="6"/>
+        <v>29.510591672753833</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="7"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>102</v>
+      </c>
+      <c r="B163">
+        <v>1.7</v>
+      </c>
+      <c r="C163" s="2">
+        <f t="shared" si="6"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>95</v>
+      </c>
+      <c r="B164">
+        <v>1.6</v>
+      </c>
+      <c r="C164" s="2">
+        <f t="shared" si="6"/>
+        <v>37.109374999999993</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>105</v>
+      </c>
+      <c r="B165">
+        <v>1.7</v>
+      </c>
+      <c r="C165" s="2">
+        <f t="shared" si="6"/>
+        <v>36.332179930795853</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>100</v>
+      </c>
+      <c r="B166">
+        <v>1.8</v>
+      </c>
+      <c r="C166" s="2">
+        <f t="shared" ref="C166:C221" si="8">A166/B166^2</f>
+        <v>30.864197530864196</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>110</v>
+      </c>
+      <c r="B167">
+        <v>1.7</v>
+      </c>
+      <c r="C167" s="2">
+        <f t="shared" si="8"/>
+        <v>38.062283737024224</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>120</v>
+      </c>
+      <c r="B168">
+        <v>1.9</v>
+      </c>
+      <c r="C168" s="2">
+        <f t="shared" si="8"/>
+        <v>33.2409972299169</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>115</v>
+      </c>
+      <c r="B169">
+        <v>1.75</v>
+      </c>
+      <c r="C169" s="2">
+        <f t="shared" si="8"/>
+        <v>37.551020408163268</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>112</v>
+      </c>
+      <c r="B170">
+        <v>1.65</v>
+      </c>
+      <c r="C170" s="2">
+        <f t="shared" si="8"/>
+        <v>41.138659320477508</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>125</v>
+      </c>
+      <c r="B171">
+        <v>1.8</v>
+      </c>
+      <c r="C171" s="2">
+        <f t="shared" si="8"/>
+        <v>38.580246913580247</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>130</v>
+      </c>
+      <c r="B172">
+        <v>1.7</v>
+      </c>
+      <c r="C172" s="2">
+        <f t="shared" si="8"/>
+        <v>44.982698961937722</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>135</v>
+      </c>
+      <c r="B173">
+        <v>1.9</v>
+      </c>
+      <c r="C173" s="2">
+        <f t="shared" si="8"/>
+        <v>37.396121883656512</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>140</v>
+      </c>
+      <c r="B174">
+        <v>1.75</v>
+      </c>
+      <c r="C174" s="2">
+        <f t="shared" si="8"/>
+        <v>45.714285714285715</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>125</v>
+      </c>
+      <c r="B175">
+        <v>1.85</v>
+      </c>
+      <c r="C175" s="2">
+        <f t="shared" si="8"/>
+        <v>36.523009495982464</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>118</v>
+      </c>
+      <c r="B176">
+        <v>1.8</v>
+      </c>
+      <c r="C176" s="2">
+        <f t="shared" si="8"/>
+        <v>36.419753086419753</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>122</v>
+      </c>
+      <c r="B177">
+        <v>1.6</v>
+      </c>
+      <c r="C177" s="2">
+        <f t="shared" si="8"/>
+        <v>47.656249999999993</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>132</v>
+      </c>
+      <c r="B178">
+        <v>1.9</v>
+      </c>
+      <c r="C178" s="2">
+        <f t="shared" si="8"/>
+        <v>36.56509695290859</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>137</v>
+      </c>
+      <c r="B179">
+        <v>1.8</v>
+      </c>
+      <c r="C179" s="2">
+        <f t="shared" si="8"/>
+        <v>42.283950617283949</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>142</v>
+      </c>
+      <c r="B180">
+        <v>1.75</v>
+      </c>
+      <c r="C180" s="2">
+        <f t="shared" si="8"/>
+        <v>46.367346938775512</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>138</v>
+      </c>
+      <c r="B181">
+        <v>1.7</v>
+      </c>
+      <c r="C181" s="2">
+        <f t="shared" si="8"/>
+        <v>47.750865051903119</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>144</v>
+      </c>
+      <c r="B182">
+        <v>1.85</v>
+      </c>
+      <c r="C182" s="2">
+        <f t="shared" si="8"/>
+        <v>42.074506939371801</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>149</v>
+      </c>
+      <c r="B183">
+        <v>1.8</v>
+      </c>
+      <c r="C183" s="2">
+        <f t="shared" si="8"/>
+        <v>45.987654320987652</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>120</v>
+      </c>
+      <c r="B184">
+        <v>1.8</v>
+      </c>
+      <c r="C184" s="2">
+        <f t="shared" si="8"/>
+        <v>37.037037037037038</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>135</v>
+      </c>
+      <c r="B185">
+        <v>1.9</v>
+      </c>
+      <c r="C185" s="2">
+        <f t="shared" si="8"/>
+        <v>37.396121883656512</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>140</v>
+      </c>
+      <c r="B186">
+        <v>1.9</v>
+      </c>
+      <c r="C186" s="2">
+        <f t="shared" si="8"/>
+        <v>38.78116343490305</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>150</v>
+      </c>
+      <c r="B187">
+        <v>1.6</v>
+      </c>
+      <c r="C187" s="2">
+        <f t="shared" si="8"/>
+        <v>58.593749999999986</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>155</v>
+      </c>
+      <c r="B188">
+        <v>1.7</v>
+      </c>
+      <c r="C188" s="2">
+        <f t="shared" si="8"/>
+        <v>53.63321799307959</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>160</v>
+      </c>
+      <c r="B189">
+        <v>1.85</v>
+      </c>
+      <c r="C189" s="2">
+        <f t="shared" si="8"/>
+        <v>46.749452154857558</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>165</v>
+      </c>
+      <c r="B190">
+        <v>1.8</v>
+      </c>
+      <c r="C190" s="2">
+        <f t="shared" si="8"/>
+        <v>50.925925925925924</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>170</v>
+      </c>
+      <c r="B191">
+        <v>1.9</v>
+      </c>
+      <c r="C191" s="2">
+        <f t="shared" si="8"/>
+        <v>47.091412742382275</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>175</v>
+      </c>
+      <c r="B192">
+        <v>1.75</v>
+      </c>
+      <c r="C192" s="2">
+        <f t="shared" si="8"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>180</v>
+      </c>
+      <c r="B193">
+        <v>1.85</v>
+      </c>
+      <c r="C193" s="2">
+        <f t="shared" si="8"/>
+        <v>52.593133674214748</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>185</v>
+      </c>
+      <c r="B194">
+        <v>1.8</v>
+      </c>
+      <c r="C194" s="2">
+        <f t="shared" si="8"/>
+        <v>57.098765432098759</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="7"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>190</v>
+      </c>
+      <c r="B195">
+        <v>1.75</v>
+      </c>
+      <c r="C195" s="2">
+        <f t="shared" si="8"/>
+        <v>62.04081632653061</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D221" si="9">IF(C195&lt;18.5,"Bajo Peso",IF(C195&lt;24.9,"Normal",IF(C195&lt;29.9,"Sobrepeso",IF(C195&lt;34.9,"Obesidad 1",IF(C195&lt;39.9,"Obesidad 2","Obesidad 3")))))</f>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1.85</v>
+      </c>
+      <c r="C196" s="2">
+        <f t="shared" si="8"/>
+        <v>56.975894813732644</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>1.9</v>
+      </c>
+      <c r="C197" s="2">
+        <f t="shared" si="8"/>
+        <v>55.4016620498615</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>210</v>
+      </c>
+      <c r="B198">
+        <v>1.8</v>
+      </c>
+      <c r="C198" s="2">
+        <f t="shared" si="8"/>
+        <v>64.81481481481481</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>220</v>
+      </c>
+      <c r="B199">
+        <v>1.85</v>
+      </c>
+      <c r="C199" s="2">
+        <f t="shared" si="8"/>
+        <v>64.280496712929136</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>230</v>
+      </c>
+      <c r="B200">
+        <v>1.9</v>
+      </c>
+      <c r="C200" s="2">
+        <f t="shared" si="8"/>
+        <v>63.711911357340725</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>240</v>
+      </c>
+      <c r="B201">
+        <v>1.8</v>
+      </c>
+      <c r="C201" s="2">
+        <f t="shared" si="8"/>
+        <v>74.074074074074076</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>180</v>
+      </c>
+      <c r="B202">
+        <v>1.5</v>
+      </c>
+      <c r="C202" s="2">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>1.8</v>
+      </c>
+      <c r="C203" s="2">
+        <f t="shared" si="8"/>
+        <v>61.728395061728392</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>220</v>
+      </c>
+      <c r="B204">
+        <v>1.6</v>
+      </c>
+      <c r="C204" s="2">
+        <f t="shared" si="8"/>
+        <v>85.937499999999986</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>240</v>
+      </c>
+      <c r="B205">
+        <v>1.9</v>
+      </c>
+      <c r="C205" s="2">
+        <f t="shared" si="8"/>
+        <v>66.4819944598338</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>250</v>
+      </c>
+      <c r="B206">
+        <v>1.7</v>
+      </c>
+      <c r="C206" s="2">
+        <f t="shared" si="8"/>
+        <v>86.505190311418701</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>260</v>
+      </c>
+      <c r="B207">
+        <v>1.8</v>
+      </c>
+      <c r="C207" s="2">
+        <f t="shared" si="8"/>
+        <v>80.246913580246911</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>270</v>
+      </c>
+      <c r="B208">
+        <v>1.75</v>
+      </c>
+      <c r="C208" s="2">
+        <f t="shared" si="8"/>
+        <v>88.163265306122454</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>280</v>
+      </c>
+      <c r="B209">
+        <v>1.85</v>
+      </c>
+      <c r="C209" s="2">
+        <f t="shared" si="8"/>
+        <v>81.811541271000721</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>290</v>
+      </c>
+      <c r="B210">
+        <v>1.9</v>
+      </c>
+      <c r="C210" s="2">
+        <f t="shared" si="8"/>
+        <v>80.332409972299175</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>300</v>
+      </c>
+      <c r="B211">
+        <v>1.8</v>
+      </c>
+      <c r="C211" s="2">
+        <f t="shared" si="8"/>
+        <v>92.592592592592581</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>310</v>
+      </c>
+      <c r="B212">
+        <v>1.75</v>
+      </c>
+      <c r="C212" s="2">
+        <f t="shared" si="8"/>
+        <v>101.22448979591837</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>320</v>
+      </c>
+      <c r="B213">
+        <v>1.85</v>
+      </c>
+      <c r="C213" s="2">
+        <f t="shared" si="8"/>
+        <v>93.498904309715115</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>330</v>
+      </c>
+      <c r="B214">
+        <v>1.9</v>
+      </c>
+      <c r="C214" s="2">
+        <f t="shared" si="8"/>
+        <v>91.412742382271475</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>340</v>
+      </c>
+      <c r="B215">
+        <v>1.8</v>
+      </c>
+      <c r="C215" s="2">
+        <f t="shared" si="8"/>
+        <v>104.93827160493827</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>350</v>
+      </c>
+      <c r="B216">
+        <v>1.75</v>
+      </c>
+      <c r="C216" s="2">
+        <f t="shared" si="8"/>
+        <v>114.28571428571429</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>360</v>
+      </c>
+      <c r="B217">
+        <v>1.85</v>
+      </c>
+      <c r="C217" s="2">
+        <f t="shared" si="8"/>
+        <v>105.1862673484295</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>370</v>
+      </c>
+      <c r="B218">
+        <v>1.9</v>
+      </c>
+      <c r="C218" s="2">
+        <f t="shared" si="8"/>
+        <v>102.49307479224377</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>380</v>
+      </c>
+      <c r="B219">
+        <v>1.8</v>
+      </c>
+      <c r="C219" s="2">
+        <f t="shared" si="8"/>
+        <v>117.28395061728395</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>390</v>
+      </c>
+      <c r="B220">
+        <v>1.75</v>
+      </c>
+      <c r="C220" s="2">
+        <f t="shared" si="8"/>
+        <v>127.34693877551021</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>400</v>
+      </c>
+      <c r="B221">
+        <v>1.9</v>
+      </c>
+      <c r="C221" s="2">
+        <f t="shared" si="8"/>
+        <v>110.803324099723</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="9"/>
+        <v>Obesidad 3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E19E917-D726-4F4F-81BD-69CA1637667F}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>